--- a/AdvisorManagement/Upload/CVHT.xlsx
+++ b/AdvisorManagement/Upload/CVHT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Zalo Received Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6F083B-C442-47F4-9DCD-9822E9CCCE23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879CA762-F3B3-4697-9A7E-7C8963BD900D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>STT</t>
   </si>
@@ -87,10 +87,13 @@
     <t>71K27CNTT25</t>
   </si>
   <si>
-    <t>71K27CNTT08</t>
-  </si>
-  <si>
     <t>Đặng Đình Hòa</t>
+  </si>
+  <si>
+    <t>Nguyễn Hạ</t>
+  </si>
+  <si>
+    <t>K25T-PM</t>
   </si>
 </sst>
 </file>
@@ -637,7 +640,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
@@ -720,7 +723,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F6" s="20">
         <v>111</v>
@@ -733,7 +736,7 @@
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>12</v>
@@ -755,7 +758,7 @@
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>12</v>
@@ -774,7 +777,7 @@
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>12</v>
